--- a/test_契約管理/已完成/test_契約管理_随時対応_値上げ更新_new.xlsx
+++ b/test_契約管理/已完成/test_契約管理_随時対応_値上げ更新_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8227" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8226" uniqueCount="1028">
   <si>
     <t>URL:</t>
   </si>
@@ -4713,8 +4713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EL129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5121,9 +5121,7 @@
       <c r="B55" s="84"/>
     </row>
     <row r="56" spans="1:75" s="83" customFormat="1" ht="14.25">
-      <c r="A56" s="90" t="s">
-        <v>165</v>
-      </c>
+      <c r="A56" s="90"/>
       <c r="B56" s="89" t="s">
         <v>647</v>
       </c>
@@ -19700,7 +19698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/test_契約管理/已完成/test_契約管理_随時対応_値上げ更新_new.xlsx
+++ b/test_契約管理/已完成/test_契約管理_随時対応_値上げ更新_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8226" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8229" uniqueCount="1030">
   <si>
     <t>URL:</t>
   </si>
@@ -3393,6 +3393,14 @@
   </si>
   <si>
     <t>/html/body/main/div/div[1]/div/div/div/table/tbody/tr[3]/td[2]/a</t>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2601</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4713,7 +4721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EL129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
@@ -19696,10 +19704,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19788,165 +19796,171 @@
         <v>781</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="42" customFormat="1" ht="14.25">
-      <c r="A8" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>591</v>
-      </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="I8" s="138" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="64" customFormat="1" ht="14.25">
+    <row r="8" spans="1:10" s="203" customFormat="1" ht="14.25">
+      <c r="A8" s="204" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C8" s="173"/>
+    </row>
+    <row r="9" spans="1:10" s="42" customFormat="1" ht="14.25">
       <c r="A9" s="77" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="64" t="s">
+        <v>591</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="I9" s="138" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="64" customFormat="1" ht="14.25">
+      <c r="A10" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="64" t="s">
         <v>687</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="I9" s="138" t="s">
+      <c r="C10" s="52"/>
+      <c r="I10" s="138" t="s">
         <v>783</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.25">
-      <c r="A10" s="77" t="s">
-        <v>688</v>
-      </c>
-      <c r="B10" s="111" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25">
       <c r="A11" s="77" t="s">
+        <v>688</v>
+      </c>
+      <c r="B11" s="111" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.25">
+      <c r="A12" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B12" s="42" t="s">
         <v>592</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I12" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.25">
-      <c r="A12" s="134" t="s">
-        <v>779</v>
-      </c>
-      <c r="B12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="14.25">
       <c r="A13" s="134" t="s">
+        <v>779</v>
+      </c>
+      <c r="B13" s="109"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.25">
+      <c r="A14" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B14" s="67" t="s">
         <v>789</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="I13" t="s">
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="I14" t="s">
         <v>790</v>
       </c>
-      <c r="J13" s="42"/>
-    </row>
-    <row r="14" spans="1:10" s="138" customFormat="1" ht="14.25">
-      <c r="A14" s="134" t="s">
-        <v>517</v>
-      </c>
-      <c r="B14" s="138" t="s">
-        <v>797</v>
-      </c>
+      <c r="J14" s="42"/>
     </row>
     <row r="15" spans="1:10" s="138" customFormat="1" ht="14.25">
       <c r="A15" s="134" t="s">
+        <v>517</v>
+      </c>
+      <c r="B15" s="138" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="138" customFormat="1" ht="14.25">
+      <c r="A16" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="138" t="s">
+      <c r="B16" s="138" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="171" customFormat="1" ht="14.25">
-      <c r="A16" s="180" t="s">
+    <row r="17" spans="1:9" s="171" customFormat="1" ht="14.25">
+      <c r="A17" s="180" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="138" customFormat="1" ht="14.25">
-      <c r="A17" s="134" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="138" t="s">
-        <v>794</v>
-      </c>
-      <c r="I17" s="138" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="14.25">
+    <row r="18" spans="1:9" s="138" customFormat="1" ht="14.25">
       <c r="A18" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="138" t="s">
+        <v>794</v>
+      </c>
+      <c r="I18" s="138" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.25">
+      <c r="A19" s="134" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>791</v>
       </c>
-      <c r="I18" s="138" t="s">
+      <c r="I19" s="138" t="s">
         <v>798</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="138" customFormat="1" ht="14.25">
-      <c r="A19" s="134" t="s">
-        <v>517</v>
-      </c>
-      <c r="B19" s="138" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="138" customFormat="1" ht="14.25">
       <c r="A20" s="134" t="s">
+        <v>517</v>
+      </c>
+      <c r="B20" s="138" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="138" customFormat="1" ht="14.25">
+      <c r="A21" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="138" t="s">
+      <c r="B21" s="138" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="171" customFormat="1" ht="14.25">
-      <c r="A21" s="180" t="s">
+    <row r="22" spans="1:9" s="171" customFormat="1" ht="14.25">
+      <c r="A22" s="180" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="138" customFormat="1" ht="14.25">
-      <c r="A22" s="134" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="138" t="s">
-        <v>794</v>
-      </c>
-      <c r="I22" s="138" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="14.25">
+    <row r="23" spans="1:9" s="138" customFormat="1" ht="14.25">
       <c r="A23" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="B23" t="s">
-        <v>792</v>
+      <c r="B23" s="138" t="s">
+        <v>794</v>
       </c>
       <c r="I23" s="138" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.25">
       <c r="A24" s="134" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>792</v>
+      </c>
+      <c r="I24" s="138" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.25">
+      <c r="A25" s="134" t="s">
         <v>517</v>
       </c>
-      <c r="B24" s="138" t="s">
+      <c r="B25" s="138" t="s">
         <v>801</v>
       </c>
     </row>
@@ -25047,10 +25061,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -25086,162 +25100,153 @@
         <v>795</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.25">
-      <c r="A5" s="134" t="s">
+    <row r="5" spans="1:9" s="203" customFormat="1" ht="14.25">
+      <c r="A5" s="204" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25">
+      <c r="A6" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="138" t="s">
+      <c r="B6" s="138" t="s">
         <v>802</v>
       </c>
-      <c r="I5" s="138" t="s">
+      <c r="I6" s="138" t="s">
         <v>803</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="140" customFormat="1" ht="14.25">
-      <c r="A6" s="150" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="140" customFormat="1" ht="14.25">
       <c r="A7" s="150" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="140" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="140" customFormat="1" ht="14.25">
       <c r="A8" s="150" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.25">
+        <v>0</v>
+      </c>
+      <c r="B8" s="140" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="140" customFormat="1" ht="14.25">
       <c r="A9" s="150" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
       <c r="A10" s="150" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="156" t="s">
-        <v>804</v>
-      </c>
-      <c r="C10" s="157" t="s">
-        <v>805</v>
-      </c>
-      <c r="D10" s="155" t="s">
-        <v>806</v>
-      </c>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-    </row>
-    <row r="11" spans="1:9" s="140" customFormat="1" ht="14.25">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="150" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="156" t="s">
-        <v>941</v>
+        <v>804</v>
       </c>
       <c r="C11" s="157" t="s">
-        <v>940</v>
-      </c>
-      <c r="D11" s="153" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.25">
+        <v>805</v>
+      </c>
+      <c r="D11" s="155" t="s">
+        <v>806</v>
+      </c>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+    </row>
+    <row r="12" spans="1:9" s="140" customFormat="1" ht="14.25">
       <c r="A12" s="150" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="156" t="s">
-        <v>807</v>
-      </c>
-      <c r="C12" s="184" t="s">
-        <v>962</v>
-      </c>
-      <c r="D12" s="155" t="s">
-        <v>808</v>
-      </c>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
+        <v>941</v>
+      </c>
+      <c r="C12" s="157" t="s">
+        <v>940</v>
+      </c>
+      <c r="D12" s="153" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="150" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="156" t="s">
-        <v>809</v>
-      </c>
-      <c r="C13" s="157" t="s">
-        <v>810</v>
+        <v>807</v>
+      </c>
+      <c r="C13" s="184" t="s">
+        <v>962</v>
       </c>
       <c r="D13" s="155" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E13" s="140"/>
       <c r="F13" s="140"/>
       <c r="G13" s="140"/>
     </row>
-    <row r="14" spans="1:9" s="140" customFormat="1" ht="14.25">
+    <row r="14" spans="1:9" ht="14.25">
       <c r="A14" s="150" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="156" t="s">
-        <v>915</v>
+        <v>809</v>
       </c>
       <c r="C14" s="157" t="s">
-        <v>916</v>
+        <v>810</v>
       </c>
       <c r="D14" s="155" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.25">
+        <v>811</v>
+      </c>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+    </row>
+    <row r="15" spans="1:9" s="140" customFormat="1" ht="14.25">
       <c r="A15" s="150" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="156" t="s">
-        <v>812</v>
+        <v>915</v>
       </c>
       <c r="C15" s="157" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D15" s="155" t="s">
-        <v>813</v>
-      </c>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
+        <v>917</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="14.25">
       <c r="A16" s="150" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="156" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C16" s="157" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D16" s="155" t="s">
-        <v>815</v>
-      </c>
+        <v>813</v>
+      </c>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
     </row>
     <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="150" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="156" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C17" s="157" t="s">
-        <v>817</v>
+        <v>919</v>
       </c>
       <c r="D17" s="155" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25">
@@ -25249,13 +25254,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="156" t="s">
-        <v>821</v>
-      </c>
-      <c r="C18" s="157">
-        <v>13911110000</v>
+        <v>816</v>
+      </c>
+      <c r="C18" s="157" t="s">
+        <v>817</v>
       </c>
       <c r="D18" s="155" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25">
@@ -25263,13 +25268,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="156" t="s">
-        <v>819</v>
-      </c>
-      <c r="C19" s="157" t="s">
-        <v>684</v>
+        <v>821</v>
+      </c>
+      <c r="C19" s="157">
+        <v>13911110000</v>
       </c>
       <c r="D19" s="155" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25">
@@ -25277,13 +25282,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="156" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="C20" s="157" t="s">
-        <v>824</v>
+        <v>684</v>
       </c>
       <c r="D20" s="155" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25">
@@ -25291,13 +25296,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="156" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C21" s="157" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D21" s="155" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25">
@@ -25305,13 +25310,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="156" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C22" s="157" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D22" s="155" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25">
@@ -25319,13 +25324,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="156" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C23" s="157" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D23" s="155" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25">
@@ -25333,13 +25338,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="156" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C24" s="157" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D24" s="155" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25">
@@ -25347,63 +25352,63 @@
         <v>4</v>
       </c>
       <c r="B25" s="156" t="s">
+        <v>835</v>
+      </c>
+      <c r="C25" s="157" t="s">
+        <v>836</v>
+      </c>
+      <c r="D25" s="155" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.25">
+      <c r="A26" s="150" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="156" t="s">
         <v>838</v>
       </c>
-      <c r="C25" s="157" t="s">
+      <c r="C26" s="157" t="s">
         <v>839</v>
       </c>
-      <c r="D25" s="155" t="s">
+      <c r="D26" s="155" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.25">
-      <c r="A26" s="150"/>
-      <c r="B26" s="156"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="154" t="s">
+    <row r="27" spans="1:4" ht="14.25">
+      <c r="A27" s="150"/>
+      <c r="B27" s="156"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="154" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14.25">
-      <c r="A27" s="150" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="156" t="s">
-        <v>842</v>
-      </c>
-      <c r="C27" s="157" t="s">
-        <v>843</v>
-      </c>
-      <c r="D27" s="155" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="140" customFormat="1" ht="14.25">
+    <row r="28" spans="1:4" ht="14.25">
       <c r="A28" s="150" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="156" t="s">
-        <v>921</v>
+        <v>842</v>
       </c>
       <c r="C28" s="157" t="s">
-        <v>920</v>
+        <v>843</v>
       </c>
       <c r="D28" s="155" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="14.25">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="140" customFormat="1" ht="14.25">
       <c r="A29" s="150" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="156" t="s">
-        <v>844</v>
-      </c>
-      <c r="C29" s="184" t="s">
-        <v>963</v>
+        <v>921</v>
+      </c>
+      <c r="C29" s="157" t="s">
+        <v>920</v>
       </c>
       <c r="D29" s="155" t="s">
-        <v>845</v>
+        <v>922</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25">
@@ -25411,13 +25416,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="156" t="s">
-        <v>846</v>
-      </c>
-      <c r="C30" s="157" t="s">
-        <v>924</v>
+        <v>844</v>
+      </c>
+      <c r="C30" s="184" t="s">
+        <v>963</v>
       </c>
       <c r="D30" s="155" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25">
@@ -25425,13 +25430,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="156" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C31" s="157" t="s">
-        <v>849</v>
+        <v>924</v>
       </c>
       <c r="D31" s="155" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25">
@@ -25439,13 +25444,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="156" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C32" s="157" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="D32" s="155" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25">
@@ -25453,13 +25458,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="156" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C33" s="157" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D33" s="155" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25">
@@ -25467,13 +25472,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="156" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C34" s="157" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D34" s="155" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25">
@@ -25481,13 +25486,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="156" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C35" s="157" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D35" s="155" t="s">
-        <v>614</v>
+        <v>859</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.25">
@@ -25495,13 +25500,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="156" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C36" s="157" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D36" s="155" t="s">
-        <v>864</v>
+        <v>614</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.25">
@@ -25509,61 +25514,61 @@
         <v>4</v>
       </c>
       <c r="B37" s="156" t="s">
+        <v>862</v>
+      </c>
+      <c r="C37" s="157" t="s">
+        <v>863</v>
+      </c>
+      <c r="D37" s="155" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14.25">
+      <c r="A38" s="150" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="156" t="s">
         <v>865</v>
       </c>
-      <c r="C37" s="157" t="s">
+      <c r="C38" s="157" t="s">
         <v>866</v>
       </c>
-      <c r="D37" s="153" t="s">
+      <c r="D38" s="153" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.25">
-      <c r="A38" s="169"/>
-      <c r="B38" s="156" t="s">
+    <row r="39" spans="1:4" ht="14.25">
+      <c r="A39" s="169"/>
+      <c r="B39" s="156" t="s">
         <v>364</v>
       </c>
-      <c r="C38" s="157" t="s">
+      <c r="C39" s="157" t="s">
         <v>925</v>
       </c>
-      <c r="D38" s="155" t="s">
+      <c r="D39" s="155" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="14.25">
-      <c r="A39" s="150" t="s">
+    <row r="40" spans="1:4" ht="14.25">
+      <c r="A40" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="156" t="s">
+      <c r="B40" s="156" t="s">
         <v>869</v>
       </c>
-      <c r="C39" s="157" t="s">
+      <c r="C40" s="157" t="s">
         <v>870</v>
       </c>
-      <c r="D39" s="155" t="s">
+      <c r="D40" s="155" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14.25">
-      <c r="A40" s="150"/>
-      <c r="B40" s="140"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="154" t="s">
+    <row r="41" spans="1:4" ht="14.25">
+      <c r="A41" s="150"/>
+      <c r="B41" s="140"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="154" t="s">
         <v>872</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="14.25">
-      <c r="A41" s="150" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="156" t="s">
-        <v>873</v>
-      </c>
-      <c r="C41" s="157" t="s">
-        <v>874</v>
-      </c>
-      <c r="D41" s="155" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.25">
@@ -25571,13 +25576,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="156" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="C42" s="157" t="s">
-        <v>677</v>
+        <v>874</v>
       </c>
       <c r="D42" s="155" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.25">
@@ -25585,41 +25590,41 @@
         <v>4</v>
       </c>
       <c r="B43" s="156" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="C43" s="157" t="s">
-        <v>927</v>
+        <v>677</v>
       </c>
       <c r="D43" s="155" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="140" customFormat="1" ht="14.25">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="14.25">
       <c r="A44" s="150" t="s">
         <v>4</v>
       </c>
       <c r="B44" s="156" t="s">
-        <v>926</v>
+        <v>876</v>
       </c>
       <c r="C44" s="157" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="D44" s="155" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="14.25">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="140" customFormat="1" ht="14.25">
       <c r="A45" s="150" t="s">
         <v>4</v>
       </c>
       <c r="B45" s="156" t="s">
-        <v>881</v>
-      </c>
-      <c r="C45" s="184" t="s">
-        <v>964</v>
+        <v>926</v>
+      </c>
+      <c r="C45" s="157" t="s">
+        <v>932</v>
       </c>
       <c r="D45" s="155" t="s">
-        <v>882</v>
+        <v>929</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.25">
@@ -25627,13 +25632,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="156" t="s">
-        <v>883</v>
-      </c>
-      <c r="C46" s="157" t="s">
-        <v>884</v>
+        <v>881</v>
+      </c>
+      <c r="C46" s="184" t="s">
+        <v>964</v>
       </c>
       <c r="D46" s="155" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.25">
@@ -25641,13 +25646,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="156" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C47" s="157" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D47" s="155" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.25">
@@ -25655,202 +25660,224 @@
         <v>4</v>
       </c>
       <c r="B48" s="156" t="s">
-        <v>889</v>
-      </c>
-      <c r="C48" s="157">
-        <v>13100000000</v>
+        <v>886</v>
+      </c>
+      <c r="C48" s="157" t="s">
+        <v>887</v>
       </c>
       <c r="D48" s="155" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="14.25">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="14.25">
       <c r="A49" s="150" t="s">
         <v>4</v>
       </c>
       <c r="B49" s="156" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C49" s="157">
-        <v>13100001111</v>
+        <v>13100000000</v>
       </c>
       <c r="D49" s="155" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="14.25">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="14.25">
       <c r="A50" s="150" t="s">
         <v>4</v>
       </c>
       <c r="B50" s="156" t="s">
+        <v>891</v>
+      </c>
+      <c r="C50" s="157">
+        <v>13100001111</v>
+      </c>
+      <c r="D50" s="155" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="14.25">
+      <c r="A51" s="150" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="156" t="s">
         <v>893</v>
       </c>
-      <c r="C50" s="157" t="s">
+      <c r="C51" s="157" t="s">
         <v>894</v>
       </c>
-      <c r="D50" s="155" t="s">
+      <c r="D51" s="155" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14.25">
-      <c r="A51" s="150"/>
-      <c r="B51" s="140"/>
-      <c r="C51" s="140"/>
-      <c r="D51" s="154" t="s">
+    <row r="52" spans="1:4" ht="14.25">
+      <c r="A52" s="150"/>
+      <c r="B52" s="140"/>
+      <c r="C52" s="140"/>
+      <c r="D52" s="154" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14.25">
-      <c r="A52" s="150" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="156" t="s">
-        <v>897</v>
-      </c>
-      <c r="C52" s="157" t="s">
-        <v>898</v>
-      </c>
-      <c r="D52" s="155" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="14.25">
+    <row r="53" spans="1:4" ht="14.25">
       <c r="A53" s="150" t="s">
         <v>4</v>
       </c>
       <c r="B53" s="156" t="s">
-        <v>900</v>
-      </c>
-      <c r="C53" s="157">
-        <v>13211111111</v>
+        <v>897</v>
+      </c>
+      <c r="C53" s="157" t="s">
+        <v>898</v>
       </c>
       <c r="D53" s="155" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="14.25">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="14.25">
       <c r="A54" s="150" t="s">
         <v>4</v>
       </c>
       <c r="B54" s="156" t="s">
+        <v>900</v>
+      </c>
+      <c r="C54" s="157">
+        <v>13211111111</v>
+      </c>
+      <c r="D54" s="155" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="14.25">
+      <c r="A55" s="150" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="156" t="s">
         <v>902</v>
       </c>
-      <c r="C54" s="157" t="s">
+      <c r="C55" s="157" t="s">
         <v>933</v>
       </c>
-      <c r="D54" s="155" t="s">
+      <c r="D55" s="155" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="14.25">
-      <c r="A55" s="150"/>
-      <c r="B55" s="140"/>
-      <c r="C55" s="140"/>
-      <c r="D55" s="154" t="s">
+    <row r="56" spans="1:4" ht="14.25">
+      <c r="A56" s="150"/>
+      <c r="B56" s="140"/>
+      <c r="C56" s="140"/>
+      <c r="D56" s="154" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="14.25">
-      <c r="A56" s="150" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="156" t="s">
-        <v>905</v>
-      </c>
-      <c r="C56" s="157" t="s">
-        <v>906</v>
-      </c>
-      <c r="D56" s="155" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="14.25">
+    <row r="57" spans="1:4" ht="14.25">
       <c r="A57" s="150" t="s">
         <v>4</v>
       </c>
       <c r="B57" s="156" t="s">
-        <v>907</v>
-      </c>
-      <c r="C57" s="157">
-        <v>13211112222</v>
+        <v>905</v>
+      </c>
+      <c r="C57" s="157" t="s">
+        <v>906</v>
       </c>
       <c r="D57" s="155" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="14.25">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="14.25">
       <c r="A58" s="150" t="s">
         <v>4</v>
       </c>
       <c r="B58" s="156" t="s">
+        <v>907</v>
+      </c>
+      <c r="C58" s="157">
+        <v>13211112222</v>
+      </c>
+      <c r="D58" s="155" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="14.25">
+      <c r="A59" s="150" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="156" t="s">
         <v>908</v>
       </c>
-      <c r="C58" s="157" t="s">
+      <c r="C59" s="157" t="s">
         <v>935</v>
       </c>
-      <c r="D58" s="155" t="s">
+      <c r="D59" s="155" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="14.25">
-      <c r="A59" s="150"/>
-      <c r="B59" s="140"/>
-      <c r="C59" s="140"/>
-      <c r="D59" s="154" t="s">
+    <row r="60" spans="1:4" ht="14.25">
+      <c r="A60" s="150"/>
+      <c r="B60" s="140"/>
+      <c r="C60" s="140"/>
+      <c r="D60" s="154" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="14.25">
-      <c r="A60" s="150" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="156" t="s">
-        <v>910</v>
-      </c>
-      <c r="C60" s="157" t="s">
-        <v>911</v>
-      </c>
-      <c r="D60" s="155" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="14.25">
+    <row r="61" spans="1:4" ht="14.25">
       <c r="A61" s="150" t="s">
         <v>4</v>
       </c>
       <c r="B61" s="156" t="s">
+        <v>910</v>
+      </c>
+      <c r="C61" s="157" t="s">
+        <v>911</v>
+      </c>
+      <c r="D61" s="155" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="203" customFormat="1" ht="14.25">
+      <c r="A62" s="204" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B62" s="183"/>
+      <c r="C62" s="184"/>
+      <c r="D62" s="182"/>
+    </row>
+    <row r="63" spans="1:4" ht="14.25">
+      <c r="A63" s="150" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="156" t="s">
         <v>913</v>
       </c>
-      <c r="C61" s="157" t="s">
+      <c r="C63" s="157" t="s">
         <v>936</v>
       </c>
-      <c r="D61" s="155" t="s">
+      <c r="D63" s="155" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="14.25">
-      <c r="A63" s="150" t="s">
+    <row r="65" spans="1:8" ht="14.25">
+      <c r="A65" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="138" t="s">
+      <c r="B65" s="138" t="s">
         <v>930</v>
       </c>
-      <c r="H63" s="140" t="s">
+      <c r="H65" s="140" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="14.25">
-      <c r="A64" s="150" t="s">
+    <row r="66" spans="1:8" ht="14.25">
+      <c r="A66" s="150" t="s">
         <v>517</v>
       </c>
-      <c r="B64" s="151" t="s">
+      <c r="B66" s="151" t="s">
         <v>931</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1"/>
+    <hyperlink ref="C20" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -31202,8 +31229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EL38"/>
   <sheetViews>
-    <sheetView topLeftCell="K7" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -31381,8 +31408,8 @@
       <c r="I4" s="185" t="s">
         <v>735</v>
       </c>
-      <c r="J4" s="185" t="s">
-        <v>736</v>
+      <c r="J4" s="202" t="s">
+        <v>1029</v>
       </c>
       <c r="K4" s="186" t="s">
         <v>170</v>
